--- a/ARGX.xlsx
+++ b/ARGX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362900C6-F62A-484A-9B32-C13F846FAE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235E170-FBB6-4B02-858D-4E04D954156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31110" yWindow="300" windowWidth="30840" windowHeight="20430" activeTab="1" xr2:uid="{0DAA4E62-F5A3-42B7-9991-5143FBFA4FA5}"/>
+    <workbookView xWindow="-44550" yWindow="1440" windowWidth="41535" windowHeight="17685" xr2:uid="{0DAA4E62-F5A3-42B7-9991-5143FBFA4FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -329,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -367,7 +367,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CB161628-6075-440D-B8CF-C54019B83582}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -383,16 +385,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>39413</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59121</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>39413</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -407,8 +409,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8303172" y="59121"/>
-          <a:ext cx="0" cy="6674069"/>
+          <a:off x="9534335" y="0"/>
+          <a:ext cx="0" cy="6357721"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -783,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC072C-9090-47FE-AE79-FF8859A46899}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -833,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>55.203654999999998</v>
+        <v>55.6</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -851,7 +853,7 @@
       </c>
       <c r="K4" s="11">
         <f>+K2*K3</f>
-        <v>21803.235578799999</v>
+        <v>21959.775999999998</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -869,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="11">
-        <v>2385.5</v>
+        <v>2007.5129999999999</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -893,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -908,7 +910,7 @@
       </c>
       <c r="K7" s="11">
         <f>+K4-K5+K6</f>
-        <v>19417.735578799999</v>
+        <v>19952.262999999999</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -953,11 +955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEDFC1B-B0AD-4EAF-96B8-DF2C11F9039A}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1114,8 +1116,12 @@
       <c r="M3" s="18">
         <v>131.32900000000001</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="N3" s="18">
+        <v>173.39599999999999</v>
+      </c>
+      <c r="O3" s="18">
+        <v>218</v>
+      </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
@@ -1163,8 +1169,14 @@
         <f>6.652+8.508</f>
         <v>15.16</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="N4" s="18">
+        <f>0.764+7.956</f>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="O4" s="18">
+        <f>10.74+1.118</f>
+        <v>11.858000000000001</v>
+      </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
@@ -1198,7 +1210,7 @@
         <v>7.1050000000000004</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" ref="J5:M5" si="1">+J3+J4</f>
+        <f t="shared" ref="J5:O5" si="1">+J3+J4</f>
         <v>33.683999999999969</v>
       </c>
       <c r="K5" s="20">
@@ -1213,8 +1225,14 @@
         <f t="shared" si="1"/>
         <v>146.489</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="N5" s="20">
+        <f t="shared" si="1"/>
+        <v>182.11599999999999</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="1"/>
+        <v>229.858</v>
+      </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
@@ -1256,8 +1274,12 @@
       <c r="M6" s="18">
         <v>10.263999999999999</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="N6" s="18">
+        <v>12.786</v>
+      </c>
+      <c r="O6" s="18">
+        <v>18.335000000000001</v>
+      </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
@@ -1279,35 +1301,41 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18">
-        <f>+G5-G6</f>
+        <f t="shared" ref="G7:M7" si="2">+G5-G6</f>
         <v>178.56700000000001</v>
       </c>
       <c r="H7" s="18">
-        <f>+H5-H6</f>
+        <f t="shared" si="2"/>
         <v>320.06200000000001</v>
       </c>
       <c r="I7" s="18">
-        <f>+I5-I6</f>
+        <f t="shared" si="2"/>
         <v>7.1050000000000004</v>
       </c>
       <c r="J7" s="18">
-        <f>+J5-J6</f>
+        <f t="shared" si="2"/>
         <v>33.683999999999969</v>
       </c>
       <c r="K7" s="18">
-        <f>+K5-K6</f>
+        <f t="shared" si="2"/>
         <v>30.108000000000001</v>
       </c>
       <c r="L7" s="18">
-        <f>+L5-L6</f>
+        <f t="shared" si="2"/>
         <v>80.172999999999988</v>
       </c>
       <c r="M7" s="18">
-        <f>+M5-M6</f>
+        <f t="shared" si="2"/>
         <v>136.22499999999999</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="18">
+        <f>+N5-N6</f>
+        <v>169.32999999999998</v>
+      </c>
+      <c r="O7" s="18">
+        <f>O5-O6</f>
+        <v>211.523</v>
+      </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
@@ -1350,8 +1378,12 @@
       <c r="M8" s="18">
         <v>236.68100000000001</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="N8" s="18">
+        <v>147.798</v>
+      </c>
+      <c r="O8" s="18">
+        <v>165.85499999999999</v>
+      </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
@@ -1359,7 +1391,7 @@
         <v>370.88499999999999</v>
       </c>
       <c r="Z8" s="17">
-        <f t="shared" ref="Y8:Z9" si="2">SUM(G8:J8)</f>
+        <f t="shared" ref="Z8:Z9" si="3">SUM(G8:J8)</f>
         <v>580.52</v>
       </c>
     </row>
@@ -1393,8 +1425,12 @@
       <c r="M9" s="18">
         <v>108.181</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="N9" s="18">
+        <v>135.28700000000001</v>
+      </c>
+      <c r="O9" s="18">
+        <v>149.172</v>
+      </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
@@ -1402,7 +1438,7 @@
         <v>171.643</v>
       </c>
       <c r="Z9" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>307.64400000000001</v>
       </c>
     </row>
@@ -1415,35 +1451,41 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18">
-        <f>+G8+G9</f>
+        <f t="shared" ref="G10:O10" si="4">+G8+G9</f>
         <v>178.58100000000002</v>
       </c>
       <c r="H10" s="18">
-        <f>+H8+H9</f>
+        <f t="shared" si="4"/>
         <v>224.92500000000001</v>
       </c>
       <c r="I10" s="18">
-        <f>+I8+I9</f>
+        <f t="shared" si="4"/>
         <v>220.06299999999999</v>
       </c>
       <c r="J10" s="18">
-        <f>+J8+J9</f>
+        <f t="shared" si="4"/>
         <v>264.59499999999997</v>
       </c>
       <c r="K10" s="18">
-        <f>+K8+K9</f>
+        <f t="shared" si="4"/>
         <v>252.834</v>
       </c>
       <c r="L10" s="18">
-        <f>+L8+L9</f>
+        <f t="shared" si="4"/>
         <v>254.71699999999998</v>
       </c>
       <c r="M10" s="18">
-        <f>+M8+M9</f>
+        <f t="shared" si="4"/>
         <v>344.86200000000002</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="N10" s="18">
+        <f t="shared" si="4"/>
+        <v>283.08500000000004</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="4"/>
+        <v>315.02699999999999</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
@@ -1465,35 +1507,41 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18">
-        <f>+G7-G10</f>
+        <f t="shared" ref="G11:O11" si="5">+G7-G10</f>
         <v>-1.4000000000010004E-2</v>
       </c>
       <c r="H11" s="18">
-        <f>+H7-H10</f>
+        <f t="shared" si="5"/>
         <v>95.137</v>
       </c>
       <c r="I11" s="18">
-        <f>+I7-I10</f>
+        <f t="shared" si="5"/>
         <v>-212.958</v>
       </c>
       <c r="J11" s="18">
-        <f>+J7-J10</f>
+        <f t="shared" si="5"/>
         <v>-230.911</v>
       </c>
       <c r="K11" s="18">
-        <f>+K7-K10</f>
+        <f t="shared" si="5"/>
         <v>-222.726</v>
       </c>
       <c r="L11" s="18">
-        <f>+L7-L10</f>
+        <f t="shared" si="5"/>
         <v>-174.54399999999998</v>
       </c>
       <c r="M11" s="18">
-        <f>+M7-M10</f>
+        <f t="shared" si="5"/>
         <v>-208.63700000000003</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="N11" s="18">
+        <f t="shared" si="5"/>
+        <v>-113.75500000000005</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="5"/>
+        <v>-103.50399999999999</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
@@ -1542,8 +1590,14 @@
         <f>8.007-0.785</f>
         <v>7.2219999999999995</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="N12" s="18">
+        <f>13.925-0.99</f>
+        <v>12.935</v>
+      </c>
+      <c r="O12" s="18">
+        <f>16.588-0.188</f>
+        <v>16.400000000000002</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
@@ -1551,7 +1605,7 @@
         <v>-1.5009999999999999</v>
       </c>
       <c r="Z12" s="17">
-        <f t="shared" ref="Y12:Z14" si="3">SUM(G12:J12)</f>
+        <f t="shared" ref="Z12:Z14" si="6">SUM(G12:J12)</f>
         <v>-0.94399999999999995</v>
       </c>
     </row>
@@ -1564,35 +1618,41 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
-        <f>+G11+G12</f>
+        <f t="shared" ref="G13:O13" si="7">+G11+G12</f>
         <v>-0.43400000000000993</v>
       </c>
       <c r="H13" s="18">
-        <f>+H11+H12</f>
+        <f t="shared" si="7"/>
         <v>94.811999999999998</v>
       </c>
       <c r="I13" s="18">
-        <f>+I11+I12</f>
+        <f t="shared" si="7"/>
         <v>-213.25299999999999</v>
       </c>
       <c r="J13" s="18">
-        <f>+J11+J12</f>
+        <f t="shared" si="7"/>
         <v>-230.815</v>
       </c>
       <c r="K13" s="18">
-        <f>+K11+K12</f>
+        <f t="shared" si="7"/>
         <v>-222.858</v>
       </c>
       <c r="L13" s="18">
-        <f>+L11+L12</f>
+        <f t="shared" si="7"/>
         <v>-170.80999999999997</v>
       </c>
       <c r="M13" s="18">
-        <f>+M11+M12</f>
+        <f t="shared" si="7"/>
         <v>-201.41500000000002</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="N13" s="18">
+        <f t="shared" si="7"/>
+        <v>-100.82000000000005</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="7"/>
+        <v>-87.103999999999985</v>
+      </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
@@ -1635,8 +1695,12 @@
       <c r="M14" s="18">
         <v>-5.9820000000000002</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="N14" s="18">
+        <v>-2.625</v>
+      </c>
+      <c r="O14" s="18">
+        <v>-47.307000000000002</v>
+      </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
@@ -1644,7 +1708,7 @@
         <v>3.1030000000000002</v>
       </c>
       <c r="Z14" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.5220000000000002</v>
       </c>
     </row>
@@ -1657,35 +1721,41 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18">
-        <f>+G13-G14</f>
+        <f t="shared" ref="G15:O15" si="8">+G13-G14</f>
         <v>-11.618000000000009</v>
       </c>
       <c r="H15" s="18">
-        <f>+H13-H14</f>
+        <f t="shared" si="8"/>
         <v>93.161000000000001</v>
       </c>
       <c r="I15" s="18">
-        <f>+I13-I14</f>
+        <f t="shared" si="8"/>
         <v>-210.50399999999999</v>
       </c>
       <c r="J15" s="18">
-        <f>+J13-J14</f>
+        <f t="shared" si="8"/>
         <v>-229.251</v>
       </c>
       <c r="K15" s="18">
-        <f>+K13-K14</f>
+        <f t="shared" si="8"/>
         <v>-219.97300000000001</v>
       </c>
       <c r="L15" s="18">
-        <f>+L13-L14</f>
+        <f t="shared" si="8"/>
         <v>-162.58099999999996</v>
       </c>
       <c r="M15" s="18">
-        <f>+M13-M14</f>
+        <f t="shared" si="8"/>
         <v>-195.43300000000002</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="N15" s="18">
+        <f t="shared" si="8"/>
+        <v>-98.19500000000005</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="8"/>
+        <v>-39.796999999999983</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -1703,32 +1773,40 @@
         <v>42</v>
       </c>
       <c r="G16" s="16">
-        <f>+G15/G17</f>
+        <f t="shared" ref="G16:O16" si="9">+G15/G17</f>
         <v>-0.23260882165652619</v>
       </c>
       <c r="H16" s="16">
-        <f>+H15/H17</f>
+        <f t="shared" si="9"/>
         <v>1.8147777385731643</v>
       </c>
       <c r="I16" s="16">
-        <f>+I15/I17</f>
+        <f t="shared" si="9"/>
         <v>-4.0901030441563018</v>
       </c>
       <c r="J16" s="16">
-        <f>+J15/J17</f>
+        <f t="shared" si="9"/>
         <v>-4.4884442106047544</v>
       </c>
       <c r="K16" s="16">
-        <f>+K15/K17</f>
+        <f t="shared" si="9"/>
         <v>-4.2234003755639771</v>
       </c>
       <c r="L16" s="16">
-        <f>+L15/L17</f>
+        <f t="shared" si="9"/>
         <v>-2.9666799440804881</v>
       </c>
       <c r="M16" s="16">
-        <f>+M15/M17</f>
+        <f t="shared" si="9"/>
         <v>-3.5402184873447244</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="9"/>
+        <v>-1.7736214881680428</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="9"/>
+        <v>-0.71635076516528962</v>
       </c>
       <c r="Y16" s="1">
         <f>+Y15/Y17</f>
@@ -1768,8 +1846,12 @@
       <c r="M17" s="15">
         <v>55.203654999999998</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="N17" s="15">
+        <v>55.364123999999997</v>
+      </c>
+      <c r="O17" s="15">
+        <v>55.555185999999999</v>
+      </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>

--- a/ARGX.xlsx
+++ b/ARGX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235E170-FBB6-4B02-858D-4E04D954156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C382C3A-DE23-45F1-AE00-A95C1C1125BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44550" yWindow="1440" windowWidth="41535" windowHeight="17685" xr2:uid="{0DAA4E62-F5A3-42B7-9991-5143FBFA4FA5}"/>
+    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{0DAA4E62-F5A3-42B7-9991-5143FBFA4FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Price</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Interest Income</t>
+  </si>
+  <si>
+    <t>CEO: Tim Van Hauwermeiren</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -435,13 +450,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>21435</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>21435</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>101300</xdr:rowOff>
@@ -487,9 +502,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,7 +542,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -633,7 +648,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -775,7 +790,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -785,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC072C-9090-47FE-AE79-FF8859A46899}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -817,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>394.96</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -835,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>55.6</v>
+        <v>59.400216999999998</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -853,7 +868,7 @@
       </c>
       <c r="K4" s="11">
         <f>+K2*K3</f>
-        <v>21959.775999999998</v>
+        <v>30709.912188999999</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -871,10 +886,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="11">
-        <v>2007.5129999999999</v>
+        <f>1438.247+1664.1</f>
+        <v>3102.3469999999998</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -895,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -910,7 +926,7 @@
       </c>
       <c r="K7" s="11">
         <f>+K4-K5+K6</f>
-        <v>19952.262999999999</v>
+        <v>27607.565189000001</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -928,6 +944,9 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
@@ -953,28 +972,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEDFC1B-B0AD-4EAF-96B8-DF2C11F9039A}">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="12"/>
+    <col min="3" max="23" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
@@ -1023,71 +1042,83 @@
       <c r="R2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2">
         <v>2015</v>
       </c>
-      <c r="U2">
-        <f>+T2+1</f>
+      <c r="Z2">
+        <f>+Y2+1</f>
         <v>2016</v>
       </c>
-      <c r="V2">
-        <f t="shared" ref="V2:AI2" si="0">+U2+1</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AN2" si="0">+Z2+1</f>
         <v>2017</v>
       </c>
-      <c r="W2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="Y2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AE2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
@@ -1122,18 +1153,31 @@
       <c r="O3" s="18">
         <v>218</v>
       </c>
-      <c r="P3" s="18"/>
+      <c r="P3" s="18">
+        <v>269.31299999999999</v>
+      </c>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
-      <c r="Y3" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="17">
+      <c r="S3" s="18">
+        <f>876-477.635</f>
+        <v>398.36500000000001</v>
+      </c>
+      <c r="T3" s="18">
+        <f>876-S3</f>
+        <v>477.63499999999999</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="AD3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="17">
         <f>SUM(G3:J3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -1177,19 +1221,29 @@
         <f>10.74+1.118</f>
         <v>11.858000000000001</v>
       </c>
-      <c r="P4" s="18"/>
+      <c r="P4" s="18">
+        <f>10.485+1.237</f>
+        <v>11.722</v>
+      </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="Y4" s="17">
+      <c r="S4" s="18"/>
+      <c r="T4" s="18">
+        <v>11.792999999999999</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="AD4" s="17">
         <f>41.243+23.668</f>
         <v>64.911000000000001</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="AE4" s="17">
         <f>SUM(G4:J4)</f>
         <v>539.41800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1264,7 @@
         <v>7.1050000000000004</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" ref="J5:O5" si="1">+J3+J4</f>
+        <f t="shared" ref="J5:T5" si="1">+J3+J4</f>
         <v>33.683999999999969</v>
       </c>
       <c r="K5" s="20">
@@ -1233,19 +1287,39 @@
         <f t="shared" si="1"/>
         <v>229.858</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="Y5" s="19">
-        <f>+Y3+Y4</f>
+      <c r="P5" s="20">
+        <f t="shared" si="1"/>
+        <v>281.03499999999997</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="1"/>
+        <v>398.36500000000001</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="1"/>
+        <v>489.428</v>
+      </c>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="AD5" s="19">
+        <f>+AD3+AD4</f>
         <v>64.911000000000001</v>
       </c>
-      <c r="Z5" s="19">
-        <f>+Z3+Z4</f>
+      <c r="AE5" s="19">
+        <f>+AE3+AE4</f>
         <v>539.41800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>38</v>
       </c>
@@ -1280,19 +1354,28 @@
       <c r="O6" s="18">
         <v>18.335000000000001</v>
       </c>
-      <c r="P6" s="18"/>
+      <c r="P6" s="18">
+        <v>24.024000000000001</v>
+      </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="Y6" s="17">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18">
+        <v>52.383000000000003</v>
+      </c>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="AD6" s="17">
         <f>SUM(F6:I6)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="AE6" s="17">
         <f>SUM(G6:J6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>39</v>
       </c>
@@ -1336,19 +1419,30 @@
         <f>O5-O6</f>
         <v>211.523</v>
       </c>
-      <c r="P7" s="18"/>
+      <c r="P7" s="18">
+        <f>+P5-P6</f>
+        <v>257.01099999999997</v>
+      </c>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="Y7" s="17">
-        <f>+Y5-Y6</f>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18">
+        <f>+T5-T6</f>
+        <v>437.04500000000002</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="AD7" s="17">
+        <f>+AD5-AD6</f>
         <v>64.911000000000001</v>
       </c>
-      <c r="Z7" s="17">
-        <f>+Z5-Z6</f>
+      <c r="AE7" s="17">
+        <f>+AE5-AE6</f>
         <v>539.41800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>40</v>
       </c>
@@ -1384,18 +1478,27 @@
       <c r="O8" s="18">
         <v>165.85499999999999</v>
       </c>
-      <c r="P8" s="18"/>
+      <c r="P8" s="18">
+        <v>195.50899999999999</v>
+      </c>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="Y8" s="17">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18">
+        <v>225.286</v>
+      </c>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="AD8" s="17">
         <v>370.88499999999999</v>
       </c>
-      <c r="Z8" s="17">
-        <f t="shared" ref="Z8:Z9" si="3">SUM(G8:J8)</f>
+      <c r="AE8" s="17">
+        <f t="shared" ref="AE8:AE9" si="3">SUM(G8:J8)</f>
         <v>580.52</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>41</v>
       </c>
@@ -1431,18 +1534,27 @@
       <c r="O9" s="18">
         <v>149.172</v>
       </c>
-      <c r="P9" s="18"/>
+      <c r="P9" s="18">
+        <v>161.977</v>
+      </c>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="Y9" s="17">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18">
+        <v>255.69900000000001</v>
+      </c>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="AD9" s="17">
         <v>171.643</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="AE9" s="17">
         <f t="shared" si="3"/>
         <v>307.64400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
@@ -1451,7 +1563,7 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:O10" si="4">+G8+G9</f>
+        <f t="shared" ref="G10:T10" si="4">+G8+G9</f>
         <v>178.58100000000002</v>
       </c>
       <c r="H10" s="18">
@@ -1486,19 +1598,39 @@
         <f t="shared" si="4"/>
         <v>315.02699999999999</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="Y10" s="17">
-        <f>+Y8+Y9</f>
+      <c r="P10" s="18">
+        <f t="shared" si="4"/>
+        <v>357.48599999999999</v>
+      </c>
+      <c r="Q10" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="4"/>
+        <v>480.98500000000001</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="AD10" s="17">
+        <f>+AD8+AD9</f>
         <v>542.52800000000002</v>
       </c>
-      <c r="Z10" s="17">
-        <f>+Z8+Z9</f>
+      <c r="AE10" s="17">
+        <f>+AE8+AE9</f>
         <v>888.16399999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1639,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18">
-        <f t="shared" ref="G11:O11" si="5">+G7-G10</f>
+        <f t="shared" ref="G11:T11" si="5">+G7-G10</f>
         <v>-1.4000000000010004E-2</v>
       </c>
       <c r="H11" s="18">
@@ -1542,19 +1674,39 @@
         <f t="shared" si="5"/>
         <v>-103.50399999999999</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="Y11" s="17">
-        <f>+Y7-Y10</f>
+      <c r="P11" s="18">
+        <f t="shared" si="5"/>
+        <v>-100.47500000000002</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="5"/>
+        <v>-43.94</v>
+      </c>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="AD11" s="17">
+        <f>+AD7-AD10</f>
         <v>-477.61700000000002</v>
       </c>
-      <c r="Z11" s="17">
-        <f>+Z7-Z10</f>
+      <c r="AE11" s="17">
+        <f>+AE7-AE10</f>
         <v>-348.74599999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
         <v>46</v>
       </c>
@@ -1598,18 +1750,27 @@
         <f>16.588-0.188</f>
         <v>16.400000000000002</v>
       </c>
-      <c r="P12" s="18"/>
+      <c r="P12" s="18">
+        <v>20.440999999999999</v>
+      </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
-      <c r="Y12" s="17">
+      <c r="S12" s="18"/>
+      <c r="T12" s="18">
+        <v>38.933</v>
+      </c>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="AD12" s="17">
         <v>-1.5009999999999999</v>
       </c>
-      <c r="Z12" s="17">
-        <f t="shared" ref="Z12:Z14" si="6">SUM(G12:J12)</f>
+      <c r="AE12" s="17">
+        <f t="shared" ref="AE12:AE14" si="6">SUM(G12:J12)</f>
         <v>-0.94399999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
         <v>45</v>
       </c>
@@ -1618,7 +1779,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
-        <f t="shared" ref="G13:O13" si="7">+G11+G12</f>
+        <f t="shared" ref="G13:T13" si="7">+G11+G12</f>
         <v>-0.43400000000000993</v>
       </c>
       <c r="H13" s="18">
@@ -1653,19 +1814,39 @@
         <f t="shared" si="7"/>
         <v>-87.103999999999985</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="Y13" s="17">
-        <f>+Y11+Y12</f>
+      <c r="P13" s="18">
+        <f t="shared" si="7"/>
+        <v>-80.03400000000002</v>
+      </c>
+      <c r="Q13" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="7"/>
+        <v>-5.0069999999999979</v>
+      </c>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="AD13" s="17">
+        <f>+AD11+AD12</f>
         <v>-479.11799999999999</v>
       </c>
-      <c r="Z13" s="17">
-        <f>+Z11+Z12</f>
+      <c r="AE13" s="17">
+        <f>+AE11+AE12</f>
         <v>-349.69</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
@@ -1701,18 +1882,27 @@
       <c r="O14" s="18">
         <v>-47.307000000000002</v>
       </c>
-      <c r="P14" s="18"/>
+      <c r="P14" s="18">
+        <v>-44.069000000000003</v>
+      </c>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
-      <c r="Y14" s="17">
+      <c r="S14" s="18"/>
+      <c r="T14" s="18">
+        <v>10.507</v>
+      </c>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="AD14" s="17">
         <v>3.1030000000000002</v>
       </c>
-      <c r="Z14" s="17">
+      <c r="AE14" s="17">
         <f t="shared" si="6"/>
         <v>8.5220000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>43</v>
       </c>
@@ -1721,7 +1911,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18">
-        <f t="shared" ref="G15:O15" si="8">+G13-G14</f>
+        <f t="shared" ref="G15:U15" si="8">+G13-G14</f>
         <v>-11.618000000000009</v>
       </c>
       <c r="H15" s="18">
@@ -1756,19 +1946,39 @@
         <f t="shared" si="8"/>
         <v>-39.796999999999983</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="Y15" s="17">
-        <f>+Y13-Y14</f>
+      <c r="P15" s="18">
+        <f t="shared" si="8"/>
+        <v>-35.965000000000018</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="8"/>
+        <v>-15.513999999999998</v>
+      </c>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="AD15" s="17">
+        <f>+AD13-AD14</f>
         <v>-482.221</v>
       </c>
-      <c r="Z15" s="17">
-        <f>+Z13-Z14</f>
+      <c r="AE15" s="17">
+        <f>+AE13-AE14</f>
         <v>-358.21199999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -1808,16 +2018,24 @@
         <f t="shared" si="9"/>
         <v>-0.71635076516528962</v>
       </c>
-      <c r="Y16" s="1">
-        <f>+Y15/Y17</f>
+      <c r="P16" s="16">
+        <f>+P15/P17</f>
+        <v>-0.64420803242602753</v>
+      </c>
+      <c r="T16" s="16">
+        <f>+T15/T17</f>
+        <v>-0.26078140928768095</v>
+      </c>
+      <c r="AD16" s="1">
+        <f>+AD15/AD17</f>
         <v>-10.619165521445485</v>
       </c>
-      <c r="Z16" s="1">
-        <f>+Z15/Z17</f>
+      <c r="AE16" s="1">
+        <f>+AE15/AE17</f>
         <v>-7.0298407971513539</v>
       </c>
     </row>
-    <row r="17" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>1</v>
       </c>
@@ -1852,13 +2070,22 @@
       <c r="O17" s="15">
         <v>55.555185999999999</v>
       </c>
-      <c r="P17" s="15"/>
+      <c r="P17" s="15">
+        <v>55.828239000000004</v>
+      </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
-      <c r="Y17" s="14">
+      <c r="S17" s="15"/>
+      <c r="T17" s="15">
+        <v>59.490437</v>
+      </c>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="AD17" s="14">
         <v>45.410442000000003</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="AE17" s="14">
         <f>AVERAGE(G17:J17)</f>
         <v>50.955919249999994</v>
       </c>

--- a/ARGX.xlsx
+++ b/ARGX.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C382C3A-DE23-45F1-AE00-A95C1C1125BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0070E8B9-7B0D-4BFD-85E1-5D96839FD3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{0DAA4E62-F5A3-42B7-9991-5143FBFA4FA5}"/>
+    <workbookView xWindow="-25665" yWindow="1155" windowWidth="25080" windowHeight="19755" xr2:uid="{0DAA4E62-F5A3-42B7-9991-5143FBFA4FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Vyvgart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Price</t>
   </si>
@@ -75,9 +76,6 @@
     <t>Q322</t>
   </si>
   <si>
-    <t>ARGX-117</t>
-  </si>
-  <si>
     <t>ARGX-119</t>
   </si>
   <si>
@@ -193,6 +191,15 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>ARGX-117 (empasiprubart)</t>
+  </si>
+  <si>
+    <t>MMN, CIDP</t>
+  </si>
+  <si>
+    <t>FcRn</t>
   </si>
 </sst>
 </file>
@@ -332,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -376,6 +383,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -400,14 +408,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50299</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50299</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>101300</xdr:rowOff>
     </xdr:to>
@@ -424,8 +432,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9534335" y="0"/>
-          <a:ext cx="0" cy="6357721"/>
+          <a:off x="13173028" y="0"/>
+          <a:ext cx="0" cy="6469443"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -800,14 +808,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC072C-9090-47FE-AE79-FF8859A46899}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -824,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -832,28 +840,30 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>517</v>
+        <v>660.76</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>59.400216999999998</v>
+        <v>60.1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -868,17 +878,19 @@
       </c>
       <c r="K4" s="11">
         <f>+K2*K3</f>
-        <v>30709.912188999999</v>
+        <v>39711.675999999999</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -886,21 +898,20 @@
         <v>3</v>
       </c>
       <c r="K5" s="11">
-        <f>1438.247+1664.1</f>
-        <v>3102.3469999999998</v>
+        <v>3374</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
@@ -911,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -926,7 +937,7 @@
       </c>
       <c r="K7" s="11">
         <f>+K4-K5+K6</f>
-        <v>27607.565189000001</v>
+        <v>36337.675999999999</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -945,7 +956,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -965,6 +976,9 @@
       <c r="G11" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Vyvgart!A1" display="Vyvgart (efgartigimod)" xr:uid="{06858417-F129-44CE-9C86-ED65030F512F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -974,11 +988,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEDFC1B-B0AD-4EAF-96B8-DF2C11F9039A}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -990,69 +1004,69 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="S2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Y2">
         <v>2015</v>
@@ -1120,7 +1134,7 @@
     </row>
     <row r="3" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1156,8 +1170,12 @@
       <c r="P3" s="18">
         <v>269.31299999999999</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+      <c r="Q3" s="18">
+        <v>329.09699999999998</v>
+      </c>
+      <c r="R3" s="18">
+        <v>374.351</v>
+      </c>
       <c r="S3" s="18">
         <f>876-477.635</f>
         <v>398.36500000000001</v>
@@ -1166,8 +1184,12 @@
         <f>876-S3</f>
         <v>477.63499999999999</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
+      <c r="U3" s="18">
+        <v>573</v>
+      </c>
+      <c r="V3" s="18">
+        <v>737</v>
+      </c>
       <c r="W3" s="18"/>
       <c r="AD3" s="17">
         <v>0</v>
@@ -1179,7 +1201,7 @@
     </row>
     <row r="4" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1225,13 +1247,25 @@
         <f>10.485+1.237</f>
         <v>11.722</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="Q4" s="18">
+        <f>10.05+0.692</f>
+        <v>10.742000000000001</v>
+      </c>
+      <c r="R4" s="18">
+        <f>32.486+11.003</f>
+        <v>43.488999999999997</v>
+      </c>
+      <c r="S4" s="18">
+        <f>2.718+11.512</f>
+        <v>14.23</v>
+      </c>
       <c r="T4" s="18">
         <v>11.792999999999999</v>
       </c>
-      <c r="U4" s="18"/>
+      <c r="U4" s="18">
+        <f>15.642+0.239</f>
+        <v>15.881</v>
+      </c>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="AD4" s="17">
@@ -1245,7 +1279,7 @@
     </row>
     <row r="5" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -1264,7 +1298,7 @@
         <v>7.1050000000000004</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" ref="J5:T5" si="1">+J3+J4</f>
+        <f t="shared" ref="J5:V5" si="1">+J3+J4</f>
         <v>33.683999999999969</v>
       </c>
       <c r="K5" s="20">
@@ -1293,22 +1327,28 @@
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>339.839</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>417.84</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="1"/>
-        <v>398.36500000000001</v>
+        <v>412.59500000000003</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="1"/>
         <v>489.428</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="U5" s="20">
+        <f t="shared" si="1"/>
+        <v>588.88099999999997</v>
+      </c>
+      <c r="V5" s="20">
+        <f t="shared" si="1"/>
+        <v>737</v>
+      </c>
       <c r="W5" s="20"/>
       <c r="AD5" s="19">
         <f>+AD3+AD4</f>
@@ -1321,7 +1361,7 @@
     </row>
     <row r="6" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1357,13 +1397,21 @@
       <c r="P6" s="18">
         <v>24.024000000000001</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="Q6" s="18">
+        <v>35.999000000000002</v>
+      </c>
+      <c r="R6" s="18">
+        <v>39.476999999999997</v>
+      </c>
+      <c r="S6" s="18">
+        <v>43.177999999999997</v>
+      </c>
       <c r="T6" s="18">
         <v>52.383000000000003</v>
       </c>
-      <c r="U6" s="18"/>
+      <c r="U6" s="18">
+        <v>59.072000000000003</v>
+      </c>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="AD6" s="17">
@@ -1377,7 +1425,7 @@
     </row>
     <row r="7" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1423,14 +1471,26 @@
         <f>+P5-P6</f>
         <v>257.01099999999997</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="Q7" s="18">
+        <f>+Q5-Q6</f>
+        <v>303.83999999999997</v>
+      </c>
+      <c r="R7" s="18">
+        <f>+R5-R6</f>
+        <v>378.363</v>
+      </c>
+      <c r="S7" s="18">
+        <f>+S5-S6</f>
+        <v>369.41700000000003</v>
+      </c>
       <c r="T7" s="18">
         <f>+T5-T6</f>
         <v>437.04500000000002</v>
       </c>
-      <c r="U7" s="18"/>
+      <c r="U7" s="18">
+        <f>+U5-U6</f>
+        <v>529.80899999999997</v>
+      </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="AD7" s="17">
@@ -1444,7 +1504,7 @@
     </row>
     <row r="8" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1481,13 +1541,21 @@
       <c r="P8" s="18">
         <v>195.50899999999999</v>
       </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="Q8" s="18">
+        <v>191.755</v>
+      </c>
+      <c r="R8" s="18">
+        <v>306.37299999999999</v>
+      </c>
+      <c r="S8" s="18">
+        <v>224.96899999999999</v>
+      </c>
       <c r="T8" s="18">
         <v>225.286</v>
       </c>
-      <c r="U8" s="18"/>
+      <c r="U8" s="18">
+        <v>235.94</v>
+      </c>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="AD8" s="17">
@@ -1500,7 +1568,7 @@
     </row>
     <row r="9" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1537,13 +1605,21 @@
       <c r="P9" s="18">
         <v>161.977</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="Q9" s="18">
+        <v>191.93</v>
+      </c>
+      <c r="R9" s="18">
+        <v>208.82599999999999</v>
+      </c>
+      <c r="S9" s="18">
+        <v>235.995</v>
+      </c>
       <c r="T9" s="18">
         <v>255.69900000000001</v>
       </c>
-      <c r="U9" s="18"/>
+      <c r="U9" s="18">
+        <v>277.69799999999998</v>
+      </c>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="AD9" s="17">
@@ -1556,14 +1632,14 @@
     </row>
     <row r="10" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:T10" si="4">+G8+G9</f>
+        <f t="shared" ref="G10:U10" si="4">+G8+G9</f>
         <v>178.58100000000002</v>
       </c>
       <c r="H10" s="18">
@@ -1604,21 +1680,24 @@
       </c>
       <c r="Q10" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>383.685</v>
       </c>
       <c r="R10" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>515.19899999999996</v>
       </c>
       <c r="S10" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>460.964</v>
       </c>
       <c r="T10" s="18">
         <f t="shared" si="4"/>
         <v>480.98500000000001</v>
       </c>
-      <c r="U10" s="18"/>
+      <c r="U10" s="18">
+        <f t="shared" si="4"/>
+        <v>513.63799999999992</v>
+      </c>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="AD10" s="17">
@@ -1632,14 +1711,14 @@
     </row>
     <row r="11" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18">
-        <f t="shared" ref="G11:T11" si="5">+G7-G10</f>
+        <f t="shared" ref="G11:U11" si="5">+G7-G10</f>
         <v>-1.4000000000010004E-2</v>
       </c>
       <c r="H11" s="18">
@@ -1680,21 +1759,24 @@
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-79.845000000000027</v>
       </c>
       <c r="R11" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-136.83599999999996</v>
       </c>
       <c r="S11" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-91.546999999999969</v>
       </c>
       <c r="T11" s="18">
         <f t="shared" si="5"/>
         <v>-43.94</v>
       </c>
-      <c r="U11" s="18"/>
+      <c r="U11" s="18">
+        <f t="shared" si="5"/>
+        <v>16.171000000000049</v>
+      </c>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="AD11" s="17">
@@ -1708,7 +1790,7 @@
     </row>
     <row r="12" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -1753,13 +1835,23 @@
       <c r="P12" s="18">
         <v>20.440999999999999</v>
       </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="Q12" s="18">
+        <v>30.048999999999999</v>
+      </c>
+      <c r="R12" s="18">
+        <f>40.308-0.28</f>
+        <v>40.027999999999999</v>
+      </c>
+      <c r="S12" s="18">
+        <f>38.895-0.512</f>
+        <v>38.383000000000003</v>
+      </c>
       <c r="T12" s="18">
         <v>38.933</v>
       </c>
-      <c r="U12" s="18"/>
+      <c r="U12" s="18">
+        <v>40.585999999999999</v>
+      </c>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
       <c r="AD12" s="17">
@@ -1772,14 +1864,14 @@
     </row>
     <row r="13" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
-        <f t="shared" ref="G13:T13" si="7">+G11+G12</f>
+        <f t="shared" ref="G13:U13" si="7">+G11+G12</f>
         <v>-0.43400000000000993</v>
       </c>
       <c r="H13" s="18">
@@ -1820,21 +1912,24 @@
       </c>
       <c r="Q13" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-49.796000000000028</v>
       </c>
       <c r="R13" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-96.807999999999964</v>
       </c>
       <c r="S13" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-53.163999999999966</v>
       </c>
       <c r="T13" s="18">
         <f t="shared" si="7"/>
         <v>-5.0069999999999979</v>
       </c>
-      <c r="U13" s="18"/>
+      <c r="U13" s="18">
+        <f t="shared" si="7"/>
+        <v>56.757000000000048</v>
+      </c>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="AD13" s="17">
@@ -1848,7 +1943,7 @@
     </row>
     <row r="14" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1885,13 +1980,21 @@
       <c r="P14" s="18">
         <v>-44.069000000000003</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
+      <c r="Q14" s="18">
+        <v>-10.637</v>
+      </c>
+      <c r="R14" s="18">
+        <v>37.994</v>
+      </c>
+      <c r="S14" s="18">
+        <v>-12.753</v>
+      </c>
       <c r="T14" s="18">
         <v>10.507</v>
       </c>
-      <c r="U14" s="18"/>
+      <c r="U14" s="18">
+        <v>-3.3860000000000001</v>
+      </c>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="AD14" s="17">
@@ -1904,7 +2007,7 @@
     </row>
     <row r="15" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1952,21 +2055,24 @@
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-39.159000000000027</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-134.80199999999996</v>
       </c>
       <c r="S15" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-40.410999999999966</v>
       </c>
       <c r="T15" s="18">
         <f t="shared" si="8"/>
         <v>-15.513999999999998</v>
       </c>
-      <c r="U15" s="18"/>
+      <c r="U15" s="18">
+        <f t="shared" si="8"/>
+        <v>60.14300000000005</v>
+      </c>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="AD15" s="17">
@@ -1980,7 +2086,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ref="G16:O16" si="9">+G15/G17</f>
@@ -2022,9 +2128,25 @@
         <f>+P15/P17</f>
         <v>-0.64420803242602753</v>
       </c>
+      <c r="Q16" s="16">
+        <f>+Q15/Q17</f>
+        <v>-0.67366575550301044</v>
+      </c>
+      <c r="R16" s="16">
+        <f>+R15/R17</f>
+        <v>-2.2801873250969602</v>
+      </c>
+      <c r="S16" s="16">
+        <f>+S15/S17</f>
+        <v>-0.68135226311598418</v>
+      </c>
       <c r="T16" s="16">
         <f>+T15/T17</f>
         <v>-0.26078140928768095</v>
+      </c>
+      <c r="U16" s="16">
+        <f>+U15/U17</f>
+        <v>1.0009236863215716</v>
       </c>
       <c r="AD16" s="1">
         <f>+AD15/AD17</f>
@@ -2073,13 +2195,21 @@
       <c r="P17" s="15">
         <v>55.828239000000004</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="Q17" s="15">
+        <v>58.128233000000002</v>
+      </c>
+      <c r="R17" s="15">
+        <v>59.118827000000003</v>
+      </c>
+      <c r="S17" s="15">
+        <v>59.309995999999998</v>
+      </c>
       <c r="T17" s="15">
         <v>59.490437</v>
       </c>
-      <c r="U17" s="15"/>
+      <c r="U17" s="15">
+        <v>60.087497999999997</v>
+      </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="AD17" s="14">
@@ -2097,4 +2227,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2FDDFC-CAB0-4107-91CA-8EC6E676B90E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ARGX.xlsx
+++ b/ARGX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0070E8B9-7B0D-4BFD-85E1-5D96839FD3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30949E72-6B57-4A38-9590-B08692D0D659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25665" yWindow="1155" windowWidth="25080" windowHeight="19755" xr2:uid="{0DAA4E62-F5A3-42B7-9991-5143FBFA4FA5}"/>
+    <workbookView xWindow="14265" yWindow="1680" windowWidth="14325" windowHeight="11745" activeTab="1" xr2:uid="{0DAA4E62-F5A3-42B7-9991-5143FBFA4FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Price</t>
   </si>
@@ -200,17 +200,88 @@
   </si>
   <si>
     <t>FcRn</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Vyvgart</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>efgartigimod</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Submitted BLA 12/17/2020.</t>
+  </si>
+  <si>
+    <t>BLA 761195 approved 12/17/2021.</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase III "Study 1704" n=167</t>
+  </si>
+  <si>
+    <t>Phase II "Study 1602" n=24</t>
+  </si>
+  <si>
+    <t>neonatal FcRn antibody fragment</t>
+  </si>
+  <si>
+    <t>Phase I "Study 1501"</t>
+  </si>
+  <si>
+    <t>67.7% MG-ADL responders vs. 29.7% placebo</t>
+  </si>
+  <si>
+    <t>63.1% QMG responder vs. 14.5% placebo</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>ARGX-213</t>
+  </si>
+  <si>
+    <t>ARGX-109</t>
+  </si>
+  <si>
+    <t>IL-6</t>
+  </si>
+  <si>
+    <t>ARGX-220</t>
+  </si>
+  <si>
+    <t>sweeping mab</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -228,6 +299,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -339,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -375,15 +454,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,16 +488,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>50299</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66864</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>50299</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66864</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>101300</xdr:rowOff>
+      <xdr:rowOff>109582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -432,8 +512,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13173028" y="0"/>
-          <a:ext cx="0" cy="6469443"/>
+          <a:off x="13865690" y="8282"/>
+          <a:ext cx="0" cy="6561735"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -458,14 +538,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>21435</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>46282</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>21435</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>46282</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>101300</xdr:rowOff>
     </xdr:to>
@@ -482,8 +562,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16244014" y="0"/>
-          <a:ext cx="0" cy="6357721"/>
+          <a:off x="21200065" y="0"/>
+          <a:ext cx="0" cy="6561735"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -808,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC072C-9090-47FE-AE79-FF8859A46899}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -819,6 +899,7 @@
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
@@ -840,11 +921,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>660.76</v>
+        <v>541.65</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -878,7 +959,7 @@
       </c>
       <c r="K4" s="11">
         <f>+K2*K3</f>
-        <v>39711.675999999999</v>
+        <v>32553.165000000001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -926,10 +1007,14 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="J7" t="s">
@@ -937,22 +1022,30 @@
       </c>
       <c r="K7" s="11">
         <f>+K4-K5+K6</f>
-        <v>36337.675999999999</v>
+        <v>29179.165000000001</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="J9" t="s">
@@ -986,13 +1079,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEDFC1B-B0AD-4EAF-96B8-DF2C11F9039A}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AZ23" sqref="AZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,14 +1093,15 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="23" width="9.140625" style="12"/>
+    <col min="47" max="47" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1170,7 @@
         <v>2016</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AN2" si="0">+Z2+1</f>
+        <f t="shared" ref="AA2:AS2" si="0">+Z2+1</f>
         <v>2017</v>
       </c>
       <c r="AB2">
@@ -1131,9 +1225,49 @@
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="AO2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" ref="AT2" si="1">+AS2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" ref="AU2" si="2">+AT2+1</f>
+        <v>2037</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" ref="AV2" si="3">+AU2+1</f>
+        <v>2038</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" ref="AW2" si="4">+AV2+1</f>
+        <v>2039</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" ref="AX2" si="5">+AW2+1</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="18"/>
@@ -1191,16 +1325,86 @@
         <v>737</v>
       </c>
       <c r="W3" s="18"/>
-      <c r="AD3" s="17">
+      <c r="AD3" s="11">
         <v>0</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="11">
         <f>SUM(G3:J3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="AF3" s="11">
+        <f>SUM(K3:N3)</f>
+        <v>400.721</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>SUM(O3:R3)</f>
+        <v>1190.761</v>
+      </c>
+      <c r="AH3" s="11">
+        <f>SUM(S3:V3)</f>
+        <v>2186</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>3500</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>4500</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>5500</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>6000</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>6500</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>7000</v>
+      </c>
+      <c r="AO3" s="11">
+        <f>+AN3+500</f>
+        <v>7500</v>
+      </c>
+      <c r="AP3" s="11">
+        <f t="shared" ref="AP3:AS3" si="6">+AO3+500</f>
+        <v>8000</v>
+      </c>
+      <c r="AQ3" s="11">
+        <f t="shared" si="6"/>
+        <v>8500</v>
+      </c>
+      <c r="AR3" s="11">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="AS3" s="11">
+        <f t="shared" si="6"/>
+        <v>9500</v>
+      </c>
+      <c r="AT3" s="11">
+        <f t="shared" ref="AT3:AX3" si="7">+AS3+500</f>
+        <v>10000</v>
+      </c>
+      <c r="AU3" s="11">
+        <f>+AT3*0.5</f>
+        <v>5000</v>
+      </c>
+      <c r="AV3" s="11">
+        <f>+AU3*0.8</f>
+        <v>4000</v>
+      </c>
+      <c r="AW3" s="11">
+        <f>+AV3*0.8</f>
+        <v>3200</v>
+      </c>
+      <c r="AX3" s="11">
+        <f>+AW3*0.8</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="18"/>
@@ -1268,16 +1472,20 @@
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
-      <c r="AD4" s="17">
+      <c r="AD4" s="11">
         <f>41.243+23.668</f>
         <v>64.911000000000001</v>
       </c>
-      <c r="AE4" s="17">
+      <c r="AE4" s="11">
         <f>SUM(G4:J4)</f>
         <v>539.41800000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH4" s="11">
+        <f>SUM(S4:V4)</f>
+        <v>41.903999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
@@ -1298,55 +1506,55 @@
         <v>7.1050000000000004</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" ref="J5:V5" si="1">+J3+J4</f>
+        <f t="shared" ref="J5:V5" si="8">+J3+J4</f>
         <v>33.683999999999969</v>
       </c>
       <c r="K5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>31.48</v>
       </c>
       <c r="L5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>85.182999999999993</v>
       </c>
       <c r="M5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>146.489</v>
       </c>
       <c r="N5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>182.11599999999999</v>
       </c>
       <c r="O5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>229.858</v>
       </c>
       <c r="P5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>281.03499999999997</v>
       </c>
       <c r="Q5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>339.839</v>
       </c>
       <c r="R5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>417.84</v>
       </c>
       <c r="S5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>412.59500000000003</v>
       </c>
       <c r="T5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>489.428</v>
       </c>
       <c r="U5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>588.88099999999997</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>737</v>
       </c>
       <c r="W5" s="20"/>
@@ -1358,9 +1566,77 @@
         <f>+AE3+AE4</f>
         <v>539.41800000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="AH5" s="19">
+        <f>+AH3+AH4</f>
+        <v>2227.904</v>
+      </c>
+      <c r="AI5" s="19">
+        <f>+AI3+AI4</f>
+        <v>3500</v>
+      </c>
+      <c r="AJ5" s="19">
+        <f>+AJ3+AJ4</f>
+        <v>4500</v>
+      </c>
+      <c r="AK5" s="19">
+        <f>+AK3+AK4</f>
+        <v>5500</v>
+      </c>
+      <c r="AL5" s="19">
+        <f>+AL3+AL4</f>
+        <v>6000</v>
+      </c>
+      <c r="AM5" s="19">
+        <f>+AM3+AM4</f>
+        <v>6500</v>
+      </c>
+      <c r="AN5" s="19">
+        <f>+AN3+AN4</f>
+        <v>7000</v>
+      </c>
+      <c r="AO5" s="19">
+        <f t="shared" ref="AO5:AS5" si="9">+AO3+AO4</f>
+        <v>7500</v>
+      </c>
+      <c r="AP5" s="19">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="AQ5" s="19">
+        <f t="shared" si="9"/>
+        <v>8500</v>
+      </c>
+      <c r="AR5" s="19">
+        <f t="shared" si="9"/>
+        <v>9000</v>
+      </c>
+      <c r="AS5" s="19">
+        <f t="shared" si="9"/>
+        <v>9500</v>
+      </c>
+      <c r="AT5" s="19">
+        <f t="shared" ref="AT5" si="10">+AT3+AT4</f>
+        <v>10000</v>
+      </c>
+      <c r="AU5" s="19">
+        <f t="shared" ref="AU5" si="11">+AU3+AU4</f>
+        <v>5000</v>
+      </c>
+      <c r="AV5" s="19">
+        <f t="shared" ref="AV5" si="12">+AV3+AV4</f>
+        <v>4000</v>
+      </c>
+      <c r="AW5" s="19">
+        <f t="shared" ref="AW5" si="13">+AW3+AW4</f>
+        <v>3200</v>
+      </c>
+      <c r="AX5" s="19">
+        <f t="shared" ref="AX5" si="14">+AX3+AX4</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="18"/>
@@ -1414,17 +1690,81 @@
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
-      <c r="AD6" s="17">
+      <c r="AD6" s="11">
         <f>SUM(F6:I6)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AE6" s="11">
         <f>SUM(G6:J6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="AI6" s="11">
+        <f>+AI5*0.1</f>
+        <v>350</v>
+      </c>
+      <c r="AJ6" s="11">
+        <f t="shared" ref="AJ6:AS6" si="15">+AJ5*0.1</f>
+        <v>450</v>
+      </c>
+      <c r="AK6" s="11">
+        <f t="shared" si="15"/>
+        <v>550</v>
+      </c>
+      <c r="AL6" s="11">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="AM6" s="11">
+        <f t="shared" si="15"/>
+        <v>650</v>
+      </c>
+      <c r="AN6" s="11">
+        <f t="shared" si="15"/>
+        <v>700</v>
+      </c>
+      <c r="AO6" s="11">
+        <f t="shared" si="15"/>
+        <v>750</v>
+      </c>
+      <c r="AP6" s="11">
+        <f t="shared" si="15"/>
+        <v>800</v>
+      </c>
+      <c r="AQ6" s="11">
+        <f t="shared" si="15"/>
+        <v>850</v>
+      </c>
+      <c r="AR6" s="11">
+        <f t="shared" si="15"/>
+        <v>900</v>
+      </c>
+      <c r="AS6" s="11">
+        <f t="shared" si="15"/>
+        <v>950</v>
+      </c>
+      <c r="AT6" s="11">
+        <f t="shared" ref="AT6" si="16">+AT5*0.1</f>
+        <v>1000</v>
+      </c>
+      <c r="AU6" s="11">
+        <f t="shared" ref="AU6" si="17">+AU5*0.1</f>
+        <v>500</v>
+      </c>
+      <c r="AV6" s="11">
+        <f t="shared" ref="AV6" si="18">+AV5*0.1</f>
+        <v>400</v>
+      </c>
+      <c r="AW6" s="11">
+        <f t="shared" ref="AW6" si="19">+AW5*0.1</f>
+        <v>320</v>
+      </c>
+      <c r="AX6" s="11">
+        <f t="shared" ref="AX6" si="20">+AX5*0.1</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="18"/>
@@ -1432,31 +1772,31 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18">
-        <f t="shared" ref="G7:M7" si="2">+G5-G6</f>
+        <f t="shared" ref="G7:M7" si="21">+G5-G6</f>
         <v>178.56700000000001</v>
       </c>
       <c r="H7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>320.06200000000001</v>
       </c>
       <c r="I7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>7.1050000000000004</v>
       </c>
       <c r="J7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>33.683999999999969</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>30.108000000000001</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>80.172999999999988</v>
       </c>
       <c r="M7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>136.22499999999999</v>
       </c>
       <c r="N7" s="18">
@@ -1468,42 +1808,106 @@
         <v>211.523</v>
       </c>
       <c r="P7" s="18">
-        <f>+P5-P6</f>
+        <f t="shared" ref="P7:U7" si="22">+P5-P6</f>
         <v>257.01099999999997</v>
       </c>
       <c r="Q7" s="18">
-        <f>+Q5-Q6</f>
+        <f t="shared" si="22"/>
         <v>303.83999999999997</v>
       </c>
       <c r="R7" s="18">
-        <f>+R5-R6</f>
+        <f t="shared" si="22"/>
         <v>378.363</v>
       </c>
       <c r="S7" s="18">
-        <f>+S5-S6</f>
+        <f t="shared" si="22"/>
         <v>369.41700000000003</v>
       </c>
       <c r="T7" s="18">
-        <f>+T5-T6</f>
+        <f t="shared" si="22"/>
         <v>437.04500000000002</v>
       </c>
       <c r="U7" s="18">
-        <f>+U5-U6</f>
+        <f t="shared" si="22"/>
         <v>529.80899999999997</v>
       </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
-      <c r="AD7" s="17">
+      <c r="AD7" s="11">
         <f>+AD5-AD6</f>
         <v>64.911000000000001</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AE7" s="11">
         <f>+AE5-AE6</f>
         <v>539.41800000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="AI7" s="11">
+        <f>+AI5-AI6</f>
+        <v>3150</v>
+      </c>
+      <c r="AJ7" s="11">
+        <f t="shared" ref="AJ7:AS7" si="23">+AJ5-AJ6</f>
+        <v>4050</v>
+      </c>
+      <c r="AK7" s="11">
+        <f t="shared" si="23"/>
+        <v>4950</v>
+      </c>
+      <c r="AL7" s="11">
+        <f t="shared" si="23"/>
+        <v>5400</v>
+      </c>
+      <c r="AM7" s="11">
+        <f t="shared" si="23"/>
+        <v>5850</v>
+      </c>
+      <c r="AN7" s="11">
+        <f t="shared" si="23"/>
+        <v>6300</v>
+      </c>
+      <c r="AO7" s="11">
+        <f t="shared" si="23"/>
+        <v>6750</v>
+      </c>
+      <c r="AP7" s="11">
+        <f t="shared" si="23"/>
+        <v>7200</v>
+      </c>
+      <c r="AQ7" s="11">
+        <f t="shared" si="23"/>
+        <v>7650</v>
+      </c>
+      <c r="AR7" s="11">
+        <f t="shared" si="23"/>
+        <v>8100</v>
+      </c>
+      <c r="AS7" s="11">
+        <f t="shared" si="23"/>
+        <v>8550</v>
+      </c>
+      <c r="AT7" s="11">
+        <f t="shared" ref="AT7" si="24">+AT5-AT6</f>
+        <v>9000</v>
+      </c>
+      <c r="AU7" s="11">
+        <f t="shared" ref="AU7" si="25">+AU5-AU6</f>
+        <v>4500</v>
+      </c>
+      <c r="AV7" s="11">
+        <f t="shared" ref="AV7" si="26">+AV5-AV6</f>
+        <v>3600</v>
+      </c>
+      <c r="AW7" s="11">
+        <f t="shared" ref="AW7" si="27">+AW5-AW6</f>
+        <v>2880</v>
+      </c>
+      <c r="AX7" s="11">
+        <f t="shared" ref="AX7" si="28">+AX5-AX6</f>
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="18"/>
@@ -1558,16 +1962,16 @@
       </c>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
-      <c r="AD8" s="17">
+      <c r="AD8" s="11">
         <v>370.88499999999999</v>
       </c>
-      <c r="AE8" s="17">
-        <f t="shared" ref="AE8:AE9" si="3">SUM(G8:J8)</f>
+      <c r="AE8" s="11">
+        <f t="shared" ref="AE8:AE9" si="29">SUM(G8:J8)</f>
         <v>580.52</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="18"/>
@@ -1622,16 +2026,80 @@
       </c>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
-      <c r="AD9" s="17">
+      <c r="AD9" s="11">
         <v>171.643</v>
       </c>
-      <c r="AE9" s="17">
-        <f t="shared" si="3"/>
+      <c r="AE9" s="11">
+        <f t="shared" si="29"/>
         <v>307.64400000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="AI9" s="11">
+        <f>+AI5*0.1</f>
+        <v>350</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f t="shared" ref="AJ9:AS9" si="30">+AJ5*0.1</f>
+        <v>450</v>
+      </c>
+      <c r="AK9" s="11">
+        <f t="shared" si="30"/>
+        <v>550</v>
+      </c>
+      <c r="AL9" s="11">
+        <f t="shared" si="30"/>
+        <v>600</v>
+      </c>
+      <c r="AM9" s="11">
+        <f t="shared" si="30"/>
+        <v>650</v>
+      </c>
+      <c r="AN9" s="11">
+        <f t="shared" si="30"/>
+        <v>700</v>
+      </c>
+      <c r="AO9" s="11">
+        <f t="shared" si="30"/>
+        <v>750</v>
+      </c>
+      <c r="AP9" s="11">
+        <f t="shared" si="30"/>
+        <v>800</v>
+      </c>
+      <c r="AQ9" s="11">
+        <f t="shared" si="30"/>
+        <v>850</v>
+      </c>
+      <c r="AR9" s="11">
+        <f t="shared" si="30"/>
+        <v>900</v>
+      </c>
+      <c r="AS9" s="11">
+        <f t="shared" si="30"/>
+        <v>950</v>
+      </c>
+      <c r="AT9" s="11">
+        <f t="shared" ref="AT9:AX9" si="31">+AT5*0.1</f>
+        <v>1000</v>
+      </c>
+      <c r="AU9" s="11">
+        <f t="shared" si="31"/>
+        <v>500</v>
+      </c>
+      <c r="AV9" s="11">
+        <f t="shared" si="31"/>
+        <v>400</v>
+      </c>
+      <c r="AW9" s="11">
+        <f t="shared" si="31"/>
+        <v>320</v>
+      </c>
+      <c r="AX9" s="11">
+        <f t="shared" si="31"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="18"/>
@@ -1639,78 +2107,142 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:U10" si="4">+G8+G9</f>
+        <f t="shared" ref="G10:U10" si="32">+G8+G9</f>
         <v>178.58100000000002</v>
       </c>
       <c r="H10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>224.92500000000001</v>
       </c>
       <c r="I10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>220.06299999999999</v>
       </c>
       <c r="J10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>264.59499999999997</v>
       </c>
       <c r="K10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>252.834</v>
       </c>
       <c r="L10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>254.71699999999998</v>
       </c>
       <c r="M10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>344.86200000000002</v>
       </c>
       <c r="N10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>283.08500000000004</v>
       </c>
       <c r="O10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>315.02699999999999</v>
       </c>
       <c r="P10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>357.48599999999999</v>
       </c>
       <c r="Q10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>383.685</v>
       </c>
       <c r="R10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>515.19899999999996</v>
       </c>
       <c r="S10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>460.964</v>
       </c>
       <c r="T10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>480.98500000000001</v>
       </c>
       <c r="U10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>513.63799999999992</v>
       </c>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
-      <c r="AD10" s="17">
+      <c r="AD10" s="11">
         <f>+AD8+AD9</f>
         <v>542.52800000000002</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="11">
         <f>+AE8+AE9</f>
         <v>888.16399999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="AI10" s="11">
+        <f>+AI9+AI8</f>
+        <v>350</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f t="shared" ref="AJ10:AS10" si="33">+AJ9+AJ8</f>
+        <v>450</v>
+      </c>
+      <c r="AK10" s="11">
+        <f t="shared" si="33"/>
+        <v>550</v>
+      </c>
+      <c r="AL10" s="11">
+        <f t="shared" si="33"/>
+        <v>600</v>
+      </c>
+      <c r="AM10" s="11">
+        <f t="shared" si="33"/>
+        <v>650</v>
+      </c>
+      <c r="AN10" s="11">
+        <f t="shared" si="33"/>
+        <v>700</v>
+      </c>
+      <c r="AO10" s="11">
+        <f t="shared" si="33"/>
+        <v>750</v>
+      </c>
+      <c r="AP10" s="11">
+        <f t="shared" si="33"/>
+        <v>800</v>
+      </c>
+      <c r="AQ10" s="11">
+        <f t="shared" si="33"/>
+        <v>850</v>
+      </c>
+      <c r="AR10" s="11">
+        <f t="shared" si="33"/>
+        <v>900</v>
+      </c>
+      <c r="AS10" s="11">
+        <f t="shared" si="33"/>
+        <v>950</v>
+      </c>
+      <c r="AT10" s="11">
+        <f t="shared" ref="AT10" si="34">+AT9+AT8</f>
+        <v>1000</v>
+      </c>
+      <c r="AU10" s="11">
+        <f t="shared" ref="AU10" si="35">+AU9+AU8</f>
+        <v>500</v>
+      </c>
+      <c r="AV10" s="11">
+        <f t="shared" ref="AV10" si="36">+AV9+AV8</f>
+        <v>400</v>
+      </c>
+      <c r="AW10" s="11">
+        <f t="shared" ref="AW10" si="37">+AW9+AW8</f>
+        <v>320</v>
+      </c>
+      <c r="AX10" s="11">
+        <f t="shared" ref="AX10" si="38">+AX9+AX8</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="18"/>
@@ -1718,78 +2250,142 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18">
-        <f t="shared" ref="G11:U11" si="5">+G7-G10</f>
+        <f t="shared" ref="G11:U11" si="39">+G7-G10</f>
         <v>-1.4000000000010004E-2</v>
       </c>
       <c r="H11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>95.137</v>
       </c>
       <c r="I11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-212.958</v>
       </c>
       <c r="J11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-230.911</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-222.726</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-174.54399999999998</v>
       </c>
       <c r="M11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-208.63700000000003</v>
       </c>
       <c r="N11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-113.75500000000005</v>
       </c>
       <c r="O11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-103.50399999999999</v>
       </c>
       <c r="P11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-100.47500000000002</v>
       </c>
       <c r="Q11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-79.845000000000027</v>
       </c>
       <c r="R11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-136.83599999999996</v>
       </c>
       <c r="S11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-91.546999999999969</v>
       </c>
       <c r="T11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-43.94</v>
       </c>
       <c r="U11" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>16.171000000000049</v>
       </c>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
-      <c r="AD11" s="17">
+      <c r="AD11" s="11">
         <f>+AD7-AD10</f>
         <v>-477.61700000000002</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AE11" s="11">
         <f>+AE7-AE10</f>
         <v>-348.74599999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="AI11" s="11">
+        <f>+AI7-AI10</f>
+        <v>2800</v>
+      </c>
+      <c r="AJ11" s="11">
+        <f t="shared" ref="AJ11:AS11" si="40">+AJ7-AJ10</f>
+        <v>3600</v>
+      </c>
+      <c r="AK11" s="11">
+        <f t="shared" si="40"/>
+        <v>4400</v>
+      </c>
+      <c r="AL11" s="11">
+        <f t="shared" si="40"/>
+        <v>4800</v>
+      </c>
+      <c r="AM11" s="11">
+        <f t="shared" si="40"/>
+        <v>5200</v>
+      </c>
+      <c r="AN11" s="11">
+        <f t="shared" si="40"/>
+        <v>5600</v>
+      </c>
+      <c r="AO11" s="11">
+        <f t="shared" si="40"/>
+        <v>6000</v>
+      </c>
+      <c r="AP11" s="11">
+        <f t="shared" si="40"/>
+        <v>6400</v>
+      </c>
+      <c r="AQ11" s="11">
+        <f t="shared" si="40"/>
+        <v>6800</v>
+      </c>
+      <c r="AR11" s="11">
+        <f t="shared" si="40"/>
+        <v>7200</v>
+      </c>
+      <c r="AS11" s="11">
+        <f t="shared" si="40"/>
+        <v>7600</v>
+      </c>
+      <c r="AT11" s="11">
+        <f t="shared" ref="AT11" si="41">+AT7-AT10</f>
+        <v>8000</v>
+      </c>
+      <c r="AU11" s="11">
+        <f t="shared" ref="AU11" si="42">+AU7-AU10</f>
+        <v>4000</v>
+      </c>
+      <c r="AV11" s="11">
+        <f t="shared" ref="AV11" si="43">+AV7-AV10</f>
+        <v>3200</v>
+      </c>
+      <c r="AW11" s="11">
+        <f t="shared" ref="AW11" si="44">+AW7-AW10</f>
+        <v>2560</v>
+      </c>
+      <c r="AX11" s="11">
+        <f t="shared" ref="AX11" si="45">+AX7-AX10</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="18"/>
@@ -1854,16 +2450,80 @@
       </c>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
-      <c r="AD12" s="17">
+      <c r="AD12" s="11">
         <v>-1.5009999999999999</v>
       </c>
-      <c r="AE12" s="17">
-        <f t="shared" ref="AE12:AE14" si="6">SUM(G12:J12)</f>
+      <c r="AE12" s="11">
+        <f t="shared" ref="AE12:AE14" si="46">SUM(G12:J12)</f>
         <v>-0.94399999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="AI12" s="11">
+        <f>+AH19*$BA$19</f>
+        <v>67.48</v>
+      </c>
+      <c r="AJ12" s="11">
+        <f t="shared" ref="AJ12:AX12" si="47">+AI19*$BA$19</f>
+        <v>116.22716000000001</v>
+      </c>
+      <c r="AK12" s="11">
+        <f t="shared" si="47"/>
+        <v>179.40302172</v>
+      </c>
+      <c r="AL12" s="11">
+        <f t="shared" si="47"/>
+        <v>257.25287308923998</v>
+      </c>
+      <c r="AM12" s="11">
+        <f t="shared" si="47"/>
+        <v>343.22617193175705</v>
+      </c>
+      <c r="AN12" s="11">
+        <f t="shared" si="47"/>
+        <v>437.46101685459689</v>
+      </c>
+      <c r="AO12" s="11">
+        <f t="shared" si="47"/>
+        <v>540.09785414112503</v>
+      </c>
+      <c r="AP12" s="11">
+        <f t="shared" si="47"/>
+        <v>651.27951766152421</v>
+      </c>
+      <c r="AQ12" s="11">
+        <f t="shared" si="47"/>
+        <v>771.1512694617702</v>
+      </c>
+      <c r="AR12" s="11">
+        <f t="shared" si="47"/>
+        <v>899.86084104262034</v>
+      </c>
+      <c r="AS12" s="11">
+        <f t="shared" si="47"/>
+        <v>1037.558475340345</v>
+      </c>
+      <c r="AT12" s="11">
+        <f t="shared" si="47"/>
+        <v>1184.3969694211307</v>
+      </c>
+      <c r="AU12" s="11">
+        <f t="shared" si="47"/>
+        <v>1340.5317179012902</v>
+      </c>
+      <c r="AV12" s="11">
+        <f t="shared" si="47"/>
+        <v>1431.3207571056121</v>
+      </c>
+      <c r="AW12" s="11">
+        <f t="shared" si="47"/>
+        <v>1510.0532099764075</v>
+      </c>
+      <c r="AX12" s="11">
+        <f t="shared" si="47"/>
+        <v>1579.2441145460064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="18"/>
@@ -1871,78 +2531,142 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
-        <f t="shared" ref="G13:U13" si="7">+G11+G12</f>
+        <f t="shared" ref="G13:U13" si="48">+G11+G12</f>
         <v>-0.43400000000000993</v>
       </c>
       <c r="H13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>94.811999999999998</v>
       </c>
       <c r="I13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-213.25299999999999</v>
       </c>
       <c r="J13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-230.815</v>
       </c>
       <c r="K13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-222.858</v>
       </c>
       <c r="L13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-170.80999999999997</v>
       </c>
       <c r="M13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-201.41500000000002</v>
       </c>
       <c r="N13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-100.82000000000005</v>
       </c>
       <c r="O13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-87.103999999999985</v>
       </c>
       <c r="P13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-80.03400000000002</v>
       </c>
       <c r="Q13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-49.796000000000028</v>
       </c>
       <c r="R13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-96.807999999999964</v>
       </c>
       <c r="S13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-53.163999999999966</v>
       </c>
       <c r="T13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>-5.0069999999999979</v>
       </c>
       <c r="U13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="48"/>
         <v>56.757000000000048</v>
       </c>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
-      <c r="AD13" s="17">
+      <c r="AD13" s="11">
         <f>+AD11+AD12</f>
         <v>-479.11799999999999</v>
       </c>
-      <c r="AE13" s="17">
+      <c r="AE13" s="11">
         <f>+AE11+AE12</f>
         <v>-349.69</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="AI13" s="11">
+        <f>+AI11+AI12</f>
+        <v>2867.48</v>
+      </c>
+      <c r="AJ13" s="11">
+        <f t="shared" ref="AJ13:AS13" si="49">+AJ11+AJ12</f>
+        <v>3716.2271599999999</v>
+      </c>
+      <c r="AK13" s="11">
+        <f t="shared" si="49"/>
+        <v>4579.4030217199997</v>
+      </c>
+      <c r="AL13" s="11">
+        <f t="shared" si="49"/>
+        <v>5057.25287308924</v>
+      </c>
+      <c r="AM13" s="11">
+        <f t="shared" si="49"/>
+        <v>5543.2261719317567</v>
+      </c>
+      <c r="AN13" s="11">
+        <f t="shared" si="49"/>
+        <v>6037.4610168545969</v>
+      </c>
+      <c r="AO13" s="11">
+        <f t="shared" si="49"/>
+        <v>6540.097854141125</v>
+      </c>
+      <c r="AP13" s="11">
+        <f t="shared" si="49"/>
+        <v>7051.2795176615246</v>
+      </c>
+      <c r="AQ13" s="11">
+        <f t="shared" si="49"/>
+        <v>7571.1512694617704</v>
+      </c>
+      <c r="AR13" s="11">
+        <f t="shared" si="49"/>
+        <v>8099.8608410426205</v>
+      </c>
+      <c r="AS13" s="11">
+        <f t="shared" si="49"/>
+        <v>8637.5584753403455</v>
+      </c>
+      <c r="AT13" s="11">
+        <f t="shared" ref="AT13" si="50">+AT11+AT12</f>
+        <v>9184.3969694211301</v>
+      </c>
+      <c r="AU13" s="11">
+        <f t="shared" ref="AU13" si="51">+AU11+AU12</f>
+        <v>5340.53171790129</v>
+      </c>
+      <c r="AV13" s="11">
+        <f t="shared" ref="AV13" si="52">+AV11+AV12</f>
+        <v>4631.3207571056118</v>
+      </c>
+      <c r="AW13" s="11">
+        <f t="shared" ref="AW13" si="53">+AW11+AW12</f>
+        <v>4070.0532099764077</v>
+      </c>
+      <c r="AX13" s="11">
+        <f t="shared" ref="AX13" si="54">+AX11+AX12</f>
+        <v>3627.2441145460061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="18"/>
@@ -1997,16 +2721,80 @@
       </c>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
-      <c r="AD14" s="17">
+      <c r="AD14" s="11">
         <v>3.1030000000000002</v>
       </c>
-      <c r="AE14" s="17">
-        <f t="shared" si="6"/>
+      <c r="AE14" s="11">
+        <f t="shared" si="46"/>
         <v>8.5220000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+      <c r="AI14" s="11">
+        <f>+AI13*0.15</f>
+        <v>430.12200000000001</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f t="shared" ref="AJ14:AS14" si="55">+AJ13*0.15</f>
+        <v>557.43407400000001</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" si="55"/>
+        <v>686.91045325799996</v>
+      </c>
+      <c r="AL14" s="11">
+        <f t="shared" si="55"/>
+        <v>758.58793096338593</v>
+      </c>
+      <c r="AM14" s="11">
+        <f t="shared" si="55"/>
+        <v>831.48392578976348</v>
+      </c>
+      <c r="AN14" s="11">
+        <f t="shared" si="55"/>
+        <v>905.61915252818949</v>
+      </c>
+      <c r="AO14" s="11">
+        <f t="shared" si="55"/>
+        <v>981.01467812116869</v>
+      </c>
+      <c r="AP14" s="11">
+        <f t="shared" si="55"/>
+        <v>1057.6919276492285</v>
+      </c>
+      <c r="AQ14" s="11">
+        <f t="shared" si="55"/>
+        <v>1135.6726904192656</v>
+      </c>
+      <c r="AR14" s="11">
+        <f t="shared" si="55"/>
+        <v>1214.979126156393</v>
+      </c>
+      <c r="AS14" s="11">
+        <f t="shared" si="55"/>
+        <v>1295.6337713010519</v>
+      </c>
+      <c r="AT14" s="11">
+        <f t="shared" ref="AT14" si="56">+AT13*0.15</f>
+        <v>1377.6595454131696</v>
+      </c>
+      <c r="AU14" s="11">
+        <f t="shared" ref="AU14" si="57">+AU13*0.15</f>
+        <v>801.0797576851935</v>
+      </c>
+      <c r="AV14" s="11">
+        <f t="shared" ref="AV14" si="58">+AV13*0.15</f>
+        <v>694.69811356584171</v>
+      </c>
+      <c r="AW14" s="11">
+        <f t="shared" ref="AW14" si="59">+AW13*0.15</f>
+        <v>610.50798149646118</v>
+      </c>
+      <c r="AX14" s="11">
+        <f t="shared" ref="AX14" si="60">+AX13*0.15</f>
+        <v>544.08661718190092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="18"/>
@@ -2014,138 +2802,202 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18">
-        <f t="shared" ref="G15:U15" si="8">+G13-G14</f>
+        <f t="shared" ref="G15:U15" si="61">+G13-G14</f>
         <v>-11.618000000000009</v>
       </c>
       <c r="H15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>93.161000000000001</v>
       </c>
       <c r="I15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-210.50399999999999</v>
       </c>
       <c r="J15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-229.251</v>
       </c>
       <c r="K15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-219.97300000000001</v>
       </c>
       <c r="L15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-162.58099999999996</v>
       </c>
       <c r="M15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-195.43300000000002</v>
       </c>
       <c r="N15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-98.19500000000005</v>
       </c>
       <c r="O15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-39.796999999999983</v>
       </c>
       <c r="P15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-35.965000000000018</v>
       </c>
       <c r="Q15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-39.159000000000027</v>
       </c>
       <c r="R15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-134.80199999999996</v>
       </c>
       <c r="S15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-40.410999999999966</v>
       </c>
       <c r="T15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>-15.513999999999998</v>
       </c>
       <c r="U15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="61"/>
         <v>60.14300000000005</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
-      <c r="AD15" s="17">
+      <c r="AD15" s="11">
         <f>+AD13-AD14</f>
         <v>-482.221</v>
       </c>
-      <c r="AE15" s="17">
+      <c r="AE15" s="11">
         <f>+AE13-AE14</f>
         <v>-358.21199999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AI15" s="11">
+        <f>+AI13-AI14</f>
+        <v>2437.3580000000002</v>
+      </c>
+      <c r="AJ15" s="11">
+        <f t="shared" ref="AJ15:AS15" si="62">+AJ13-AJ14</f>
+        <v>3158.7930859999997</v>
+      </c>
+      <c r="AK15" s="11">
+        <f t="shared" si="62"/>
+        <v>3892.4925684619998</v>
+      </c>
+      <c r="AL15" s="11">
+        <f t="shared" si="62"/>
+        <v>4298.6649421258544</v>
+      </c>
+      <c r="AM15" s="11">
+        <f t="shared" si="62"/>
+        <v>4711.7422461419928</v>
+      </c>
+      <c r="AN15" s="11">
+        <f t="shared" si="62"/>
+        <v>5131.8418643264076</v>
+      </c>
+      <c r="AO15" s="11">
+        <f t="shared" si="62"/>
+        <v>5559.0831760199562</v>
+      </c>
+      <c r="AP15" s="11">
+        <f t="shared" si="62"/>
+        <v>5993.5875900122955</v>
+      </c>
+      <c r="AQ15" s="11">
+        <f t="shared" si="62"/>
+        <v>6435.4785790425049</v>
+      </c>
+      <c r="AR15" s="11">
+        <f t="shared" si="62"/>
+        <v>6884.8817148862272</v>
+      </c>
+      <c r="AS15" s="11">
+        <f t="shared" si="62"/>
+        <v>7341.9247040392938</v>
+      </c>
+      <c r="AT15" s="11">
+        <f t="shared" ref="AT15" si="63">+AT13-AT14</f>
+        <v>7806.7374240079607</v>
+      </c>
+      <c r="AU15" s="11">
+        <f t="shared" ref="AU15" si="64">+AU13-AU14</f>
+        <v>4539.4519602160963</v>
+      </c>
+      <c r="AV15" s="11">
+        <f t="shared" ref="AV15" si="65">+AV13-AV14</f>
+        <v>3936.6226435397703</v>
+      </c>
+      <c r="AW15" s="11">
+        <f t="shared" ref="AW15" si="66">+AW13-AW14</f>
+        <v>3459.5452284799467</v>
+      </c>
+      <c r="AX15" s="11">
+        <f t="shared" ref="AX15" si="67">+AX13-AX14</f>
+        <v>3083.1574973641054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="16">
-        <f t="shared" ref="G16:O16" si="9">+G15/G17</f>
+        <f t="shared" ref="G16:O16" si="68">+G15/G17</f>
         <v>-0.23260882165652619</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="68"/>
         <v>1.8147777385731643</v>
       </c>
       <c r="I16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="68"/>
         <v>-4.0901030441563018</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="68"/>
         <v>-4.4884442106047544</v>
       </c>
       <c r="K16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="68"/>
         <v>-4.2234003755639771</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="68"/>
         <v>-2.9666799440804881</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="68"/>
         <v>-3.5402184873447244</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="68"/>
         <v>-1.7736214881680428</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="68"/>
         <v>-0.71635076516528962</v>
       </c>
       <c r="P16" s="16">
-        <f>+P15/P17</f>
+        <f t="shared" ref="P16:U16" si="69">+P15/P17</f>
         <v>-0.64420803242602753</v>
       </c>
       <c r="Q16" s="16">
-        <f>+Q15/Q17</f>
+        <f t="shared" si="69"/>
         <v>-0.67366575550301044</v>
       </c>
       <c r="R16" s="16">
-        <f>+R15/R17</f>
+        <f t="shared" si="69"/>
         <v>-2.2801873250969602</v>
       </c>
       <c r="S16" s="16">
-        <f>+S15/S17</f>
+        <f t="shared" si="69"/>
         <v>-0.68135226311598418</v>
       </c>
       <c r="T16" s="16">
-        <f>+T15/T17</f>
+        <f t="shared" si="69"/>
         <v>-0.26078140928768095</v>
       </c>
       <c r="U16" s="16">
-        <f>+U15/U17</f>
+        <f t="shared" si="69"/>
         <v>1.0009236863215716</v>
       </c>
       <c r="AD16" s="1">
@@ -2157,7 +3009,7 @@
         <v>-7.0298407971513539</v>
       </c>
     </row>
-    <row r="17" spans="2:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:53" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>1</v>
       </c>
@@ -2218,6 +3070,119 @@
       <c r="AE17" s="14">
         <f>AVERAGE(G17:J17)</f>
         <v>50.955919249999994</v>
+      </c>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="AZ18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA18" s="22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH19">
+        <v>3374</v>
+      </c>
+      <c r="AI19" s="11">
+        <f>+AH19+AI15</f>
+        <v>5811.3580000000002</v>
+      </c>
+      <c r="AJ19" s="11">
+        <f t="shared" ref="AJ19:AX19" si="70">+AI19+AJ15</f>
+        <v>8970.1510859999999</v>
+      </c>
+      <c r="AK19" s="11">
+        <f t="shared" si="70"/>
+        <v>12862.643654461999</v>
+      </c>
+      <c r="AL19" s="11">
+        <f t="shared" si="70"/>
+        <v>17161.308596587853</v>
+      </c>
+      <c r="AM19" s="11">
+        <f t="shared" si="70"/>
+        <v>21873.050842729845</v>
+      </c>
+      <c r="AN19" s="11">
+        <f t="shared" si="70"/>
+        <v>27004.892707056253</v>
+      </c>
+      <c r="AO19" s="11">
+        <f t="shared" si="70"/>
+        <v>32563.975883076208</v>
+      </c>
+      <c r="AP19" s="11">
+        <f t="shared" si="70"/>
+        <v>38557.563473088507</v>
+      </c>
+      <c r="AQ19" s="11">
+        <f t="shared" si="70"/>
+        <v>44993.042052131015</v>
+      </c>
+      <c r="AR19" s="11">
+        <f t="shared" si="70"/>
+        <v>51877.923767017244</v>
+      </c>
+      <c r="AS19" s="11">
+        <f t="shared" si="70"/>
+        <v>59219.848471056539</v>
+      </c>
+      <c r="AT19" s="11">
+        <f t="shared" si="70"/>
+        <v>67026.585895064505</v>
+      </c>
+      <c r="AU19" s="11">
+        <f t="shared" si="70"/>
+        <v>71566.037855280607</v>
+      </c>
+      <c r="AV19" s="11">
+        <f t="shared" si="70"/>
+        <v>75502.660498820376</v>
+      </c>
+      <c r="AW19" s="11">
+        <f t="shared" si="70"/>
+        <v>78962.205727300316</v>
+      </c>
+      <c r="AX19" s="11">
+        <f t="shared" si="70"/>
+        <v>82045.363224664427</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA19" s="22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="AZ20" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA20" s="11">
+        <f>NPV(BA18,AI15:AX15)+Main!K5-Main!K6</f>
+        <v>45168.399374084111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="AZ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" s="1">
+        <f>BA20/Main!K3</f>
+        <v>751.55406612452759</v>
+      </c>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="AZ22" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA22" s="22">
+        <f>+BA21/541-1</f>
+        <v>0.38919420725421006</v>
       </c>
     </row>
   </sheetData>
@@ -2231,23 +3196,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2FDDFC-CAB0-4107-91CA-8EC6E676B90E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0C08CF14-CC91-41AC-BAF3-B0CBCD402D84}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>